--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2355162_cognizant_com/Documents/Desktop/Hackathon/CarWashingServices/reports/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="9">
   <si>
     <t>Sort by</t>
   </si>
@@ -53,6 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,51 +425,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
